--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4493" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T13:23:42+02:00</t>
+    <t>2023-07-11T14:45:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1357,6 +1357,21 @@
   </si>
   <si>
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
+  </si>
+  <si>
+    <t>cara-patient</t>
+  </si>
+  <si>
+    <t>http://example.org/fhir/fish/StructureDefinition/cara-patient</t>
+  </si>
+  <si>
+    <t>CaraPatient</t>
+  </si>
+  <si>
+    <t>CaraPatient Patient</t>
+  </si>
+  <si>
+    <t>A patient who is affiliated to the CARA community</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1964,6 +1979,158 @@
         <v>35</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1971,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1980,7 +2147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.57421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="14.2890625" customWidth="true" bestFit="true" hidden="true"/>
@@ -11066,6 +11233,4759 @@
         <v>68</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Q95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R99" s="2"/>
+      <c r="S99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R100" s="2"/>
+      <c r="S100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Q101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R101" s="2"/>
+      <c r="S101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R102" s="2"/>
+      <c r="S102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Q103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R103" s="2"/>
+      <c r="S103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Q104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R104" s="2"/>
+      <c r="S104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Q105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R105" s="2"/>
+      <c r="S105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Q106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R106" s="2"/>
+      <c r="S106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Q107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R107" s="2"/>
+      <c r="S107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R108" s="2"/>
+      <c r="S108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R109" s="2"/>
+      <c r="S109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Q110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R110" s="2"/>
+      <c r="S110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Q111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R111" s="2"/>
+      <c r="S111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Q112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R112" s="2"/>
+      <c r="S112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Q113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R113" s="2"/>
+      <c r="S113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R114" s="2"/>
+      <c r="S114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Q115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R115" s="2"/>
+      <c r="S115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Q116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R116" s="2"/>
+      <c r="S116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R117" s="2"/>
+      <c r="S117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Q118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R118" s="2"/>
+      <c r="S118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R119" s="2"/>
+      <c r="S119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R120" s="2"/>
+      <c r="S120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Q121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R121" s="2"/>
+      <c r="S121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Q122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R122" s="2"/>
+      <c r="S122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Q123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R123" s="2"/>
+      <c r="S123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R124" s="2"/>
+      <c r="S124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Q125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R125" s="2"/>
+      <c r="S125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P126" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R126" s="2"/>
+      <c r="S126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R127" s="2"/>
+      <c r="S127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R128" s="2"/>
+      <c r="S128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Q129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R129" s="2"/>
+      <c r="S129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R130" s="2"/>
+      <c r="S130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R131" s="2"/>
+      <c r="S131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T10:52:26+02:00</t>
+    <t>2023-07-13T11:08:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1780,10 +1780,10 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>Patient.extension:birthcountry</t>
-  </si>
-  <si>
-    <t>birthcountry</t>
+    <t>Patient.extension:birthCountry</t>
+  </si>
+  <si>
+    <t>birthCountry</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/country-of-birth}

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:08:06+02:00</t>
+    <t>2023-07-13T11:12:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="720">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T12:25:01+02:00</t>
+    <t>2023-07-17T09:25:48+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1756,16 +1756,13 @@
     <t>http://example.org/fhir/fish/StructureDefinition/cara-patient</t>
   </si>
   <si>
-    <t>CaraPatient</t>
+    <t>Patient</t>
   </si>
   <si>
     <t>CARA Patient</t>
   </si>
   <si>
     <t>This profile extension is used to ensure the fields of the master patient index are properly used throughout the implementation.</t>
-  </si>
-  <si>
-    <t>Patient</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
@@ -3652,7 +3649,7 @@
         <v>28</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163">
@@ -3660,7 +3657,7 @@
         <v>30</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="164">
@@ -3692,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="168">
@@ -3700,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169">
@@ -3716,7 +3713,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="171">
@@ -3724,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172">
@@ -3768,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178">
@@ -3852,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="189">
@@ -3860,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="190">
@@ -3876,7 +3873,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="192">
@@ -3884,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="193">
@@ -3928,7 +3925,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="199">
@@ -17056,14 +17053,14 @@
         <v>550</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
@@ -17085,10 +17082,10 @@
         <v>41</v>
       </c>
       <c r="M125" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17139,7 +17136,7 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
@@ -17159,10 +17156,10 @@
         <v>550</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17264,10 +17261,10 @@
         <v>550</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17367,10 +17364,10 @@
         <v>550</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17472,10 +17469,10 @@
         <v>550</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17577,10 +17574,10 @@
         <v>550</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -17682,10 +17679,10 @@
         <v>550</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -17787,10 +17784,10 @@
         <v>550</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17888,13 +17885,13 @@
         <v>550</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="D133" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="E133" t="s" s="2">
         <v>38</v>
@@ -17916,13 +17913,13 @@
         <v>38</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17993,10 +17990,10 @@
         <v>550</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18100,10 +18097,10 @@
         <v>550</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18129,14 +18126,14 @@
         <v>146</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>38</v>
@@ -18185,7 +18182,7 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
@@ -18205,10 +18202,10 @@
         <v>550</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18234,16 +18231,16 @@
         <v>71</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="O136" t="s" s="2">
+      <c r="P136" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="Q136" t="s" s="2">
         <v>38</v>
@@ -18294,7 +18291,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -18314,10 +18311,10 @@
         <v>550</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18343,16 +18340,16 @@
         <v>483</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="O137" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="O137" t="s" s="2">
+      <c r="P137" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>38</v>
@@ -18401,7 +18398,7 @@
         <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
@@ -18421,10 +18418,10 @@
         <v>550</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18450,16 +18447,16 @@
         <v>489</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="O138" t="s" s="2">
+      <c r="P138" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -18508,7 +18505,7 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -18528,10 +18525,10 @@
         <v>550</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18560,13 +18557,13 @@
         <v>501</v>
       </c>
       <c r="N139" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O139" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="O139" t="s" s="2">
+      <c r="P139" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -18615,7 +18612,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -18635,10 +18632,10 @@
         <v>550</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18664,16 +18661,16 @@
         <v>507</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="O140" t="s" s="2">
+      <c r="P140" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -18722,7 +18719,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18742,10 +18739,10 @@
         <v>550</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18768,19 +18765,19 @@
         <v>84</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="O141" t="s" s="2">
+      <c r="P141" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -18829,7 +18826,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18849,10 +18846,10 @@
         <v>550</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18878,16 +18875,16 @@
         <v>495</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="O142" t="s" s="2">
+      <c r="P142" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>38</v>
@@ -18936,7 +18933,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18956,10 +18953,10 @@
         <v>550</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18985,14 +18982,14 @@
         <v>190</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q143" t="s" s="2">
         <v>38</v>
@@ -19020,11 +19017,11 @@
         <v>445</v>
       </c>
       <c r="Z143" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AA143" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AA143" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
       </c>
@@ -19041,7 +19038,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -19061,10 +19058,10 @@
         <v>550</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19087,19 +19084,19 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="O144" t="s" s="2">
+      <c r="P144" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="P144" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="Q144" t="s" s="2">
         <v>38</v>
@@ -19148,7 +19145,7 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>39</v>
@@ -19168,10 +19165,10 @@
         <v>550</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19197,16 +19194,16 @@
         <v>512</v>
       </c>
       <c r="M145" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N145" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="O145" t="s" s="2">
+      <c r="P145" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -19255,7 +19252,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -19275,10 +19272,10 @@
         <v>550</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19304,16 +19301,16 @@
         <v>260</v>
       </c>
       <c r="M146" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="O146" t="s" s="2">
+      <c r="P146" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -19362,7 +19359,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -19374,7 +19371,7 @@
         <v>38</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147">
@@ -19382,10 +19379,10 @@
         <v>550</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19485,10 +19482,10 @@
         <v>550</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -19590,10 +19587,10 @@
         <v>550</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -19697,10 +19694,10 @@
         <v>550</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19726,14 +19723,14 @@
         <v>190</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q150" t="s" s="2">
         <v>38</v>
@@ -19761,11 +19758,11 @@
         <v>445</v>
       </c>
       <c r="Z150" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AA150" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AA150" t="s" s="2">
-        <v>643</v>
-      </c>
       <c r="AB150" t="s" s="2">
         <v>38</v>
       </c>
@@ -19782,7 +19779,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19802,10 +19799,10 @@
         <v>550</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19831,14 +19828,14 @@
         <v>483</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -19887,7 +19884,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19907,10 +19904,10 @@
         <v>550</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19936,16 +19933,16 @@
         <v>489</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="O152" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="P152" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q152" t="s" s="2">
         <v>38</v>
@@ -19994,7 +19991,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -20014,10 +20011,10 @@
         <v>550</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20043,14 +20040,14 @@
         <v>495</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>38</v>
@@ -20099,7 +20096,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -20119,10 +20116,10 @@
         <v>550</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20151,7 +20148,7 @@
         <v>501</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -20204,7 +20201,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -20224,10 +20221,10 @@
         <v>550</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20253,14 +20250,14 @@
         <v>471</v>
       </c>
       <c r="M155" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
@@ -20309,7 +20306,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -20318,7 +20315,7 @@
         <v>44</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>65</v>
@@ -20329,10 +20326,10 @@
         <v>550</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20358,10 +20355,10 @@
         <v>217</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20412,7 +20409,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
@@ -20432,10 +20429,10 @@
         <v>550</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20461,16 +20458,16 @@
         <v>260</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="O157" t="s" s="2">
+      <c r="P157" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>38</v>
@@ -20519,7 +20516,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -20539,10 +20536,10 @@
         <v>550</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20642,10 +20639,10 @@
         <v>550</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -20747,10 +20744,10 @@
         <v>550</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20854,10 +20851,10 @@
         <v>550</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20883,16 +20880,16 @@
         <v>190</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="O161" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="O161" t="s" s="2">
+      <c r="P161" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>38</v>
@@ -20941,7 +20938,7 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>44</v>
@@ -20961,10 +20958,10 @@
         <v>550</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20990,16 +20987,16 @@
         <v>71</v>
       </c>
       <c r="M162" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="O162" t="s" s="2">
+      <c r="P162" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="Q162" t="s" s="2">
         <v>38</v>
@@ -21048,7 +21045,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -21068,14 +21065,14 @@
         <v>550</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
@@ -21094,16 +21091,16 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="N163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -21153,7 +21150,7 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
@@ -21173,10 +21170,10 @@
         <v>550</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21202,16 +21199,16 @@
         <v>471</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="O164" t="s" s="2">
+      <c r="P164" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>38</v>
@@ -21260,7 +21257,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -21280,10 +21277,10 @@
         <v>550</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21309,16 +21306,16 @@
         <v>260</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>38</v>
@@ -21367,7 +21364,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21387,10 +21384,10 @@
         <v>550</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21490,10 +21487,10 @@
         <v>550</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -21595,10 +21592,10 @@
         <v>550</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21702,10 +21699,10 @@
         <v>550</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21728,16 +21725,16 @@
         <v>84</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M169" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -21787,7 +21784,7 @@
         <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>44</v>
@@ -21807,10 +21804,10 @@
         <v>550</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21836,10 +21833,10 @@
         <v>101</v>
       </c>
       <c r="M170" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21869,11 +21866,11 @@
         <v>180</v>
       </c>
       <c r="Z170" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AA170" t="s" s="2">
         <v>710</v>
       </c>
-      <c r="AA170" t="s" s="2">
-        <v>711</v>
-      </c>
       <c r="AB170" t="s" s="2">
         <v>38</v>
       </c>
@@ -21890,7 +21887,7 @@
         <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>44</v>
@@ -21907,7 +21904,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>29</v>
@@ -21939,10 +21936,10 @@
         <v>41</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22010,7 +22007,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>43</v>
@@ -22113,7 +22110,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>49</v>
@@ -22216,7 +22213,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>57</v>
@@ -22262,7 +22259,7 @@
       </c>
       <c r="R174" s="2"/>
       <c r="S174" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>38</v>
@@ -22321,7 +22318,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>62</v>
@@ -22387,7 +22384,7 @@
       </c>
       <c r="Z175" s="2"/>
       <c r="AA175" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AB175" t="s" s="2">
         <v>38</v>
@@ -22422,7 +22419,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>29</v>
@@ -22454,10 +22451,10 @@
         <v>41</v>
       </c>
       <c r="M176" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -22525,7 +22522,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>43</v>
@@ -22628,7 +22625,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>49</v>
@@ -22731,7 +22728,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>57</v>
@@ -22777,7 +22774,7 @@
       </c>
       <c r="R179" s="2"/>
       <c r="S179" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>38</v>
@@ -22836,7 +22833,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>62</v>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6307" uniqueCount="718">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:25:48+02:00</t>
+    <t>2023-07-17T09:30:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -246,19 +246,16 @@
     <t>http://example.org/fhir/fish/StructureDefinition/careplan</t>
   </si>
   <si>
-    <t>CaraCarePlan</t>
-  </si>
-  <si>
-    <t>CARA Care Plan</t>
+    <t>CarePlan</t>
+  </si>
+  <si>
+    <t>Care Plan</t>
   </si>
   <si>
     <t>A Care Plan tailored to the needs of CARA with advanced directives</t>
   </si>
   <si>
     <t>resource</t>
-  </si>
-  <si>
-    <t>CarePlan</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
@@ -1757,9 +1754,6 @@
   </si>
   <si>
     <t>Patient</t>
-  </si>
-  <si>
-    <t>CARA Patient</t>
   </si>
   <si>
     <t>This profile extension is used to ensure the fields of the master patient index are properly used throughout the implementation.</t>
@@ -2865,7 +2859,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
@@ -2873,7 +2867,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -2905,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -2913,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66">
@@ -2929,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68">
@@ -2937,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
@@ -2981,7 +2975,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75">
@@ -3065,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86">
@@ -3073,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87">
@@ -3089,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89">
@@ -3097,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90">
@@ -3141,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96">
@@ -3177,7 +3171,7 @@
         <v>28</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101">
@@ -3185,7 +3179,7 @@
         <v>30</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102">
@@ -3217,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106">
@@ -3225,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107">
@@ -3241,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109">
@@ -3249,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
@@ -3293,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116">
@@ -3377,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127">
@@ -3385,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128">
@@ -3401,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130">
@@ -3409,7 +3403,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
@@ -3453,7 +3447,7 @@
         <v>20</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
@@ -3537,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148">
@@ -3545,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149">
@@ -3561,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151">
@@ -3569,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152">
@@ -3613,7 +3607,7 @@
         <v>20</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158">
@@ -3649,7 +3643,7 @@
         <v>28</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163">
@@ -3657,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164">
@@ -3689,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="168">
@@ -3697,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="169">
@@ -3713,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="171">
@@ -3721,7 +3715,7 @@
         <v>10</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172">
@@ -3765,7 +3759,7 @@
         <v>20</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178">
@@ -3849,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="189">
@@ -3857,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="190">
@@ -3873,7 +3867,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="192">
@@ -3881,7 +3875,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="193">
@@ -3925,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="199">
@@ -5087,14 +5081,14 @@
         <v>72</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
@@ -5116,10 +5110,10 @@
         <v>41</v>
       </c>
       <c r="M11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -5170,7 +5164,7 @@
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -5190,10 +5184,10 @@
         <v>72</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -5213,19 +5207,19 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
@@ -5275,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>39</v>
@@ -5295,10 +5289,10 @@
         <v>72</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -5318,16 +5312,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -5378,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -5398,10 +5392,10 @@
         <v>72</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -5418,22 +5412,22 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
@@ -5483,7 +5477,7 @@
         <v>38</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
@@ -5503,10 +5497,10 @@
         <v>72</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -5529,16 +5523,16 @@
         <v>38</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -5564,31 +5558,31 @@
         <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA15" t="s" s="2">
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -5608,14 +5602,14 @@
         <v>72</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
@@ -5634,16 +5628,16 @@
         <v>38</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
@@ -5693,7 +5687,7 @@
         <v>38</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -5713,14 +5707,14 @@
         <v>72</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
@@ -5739,16 +5733,16 @@
         <v>38</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -5798,7 +5792,7 @@
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
@@ -5818,10 +5812,10 @@
         <v>72</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -5899,7 +5893,7 @@
         <v>54</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
@@ -5919,13 +5913,13 @@
         <v>72</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>38</v>
@@ -5947,13 +5941,13 @@
         <v>38</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -6004,7 +5998,7 @@
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -6024,13 +6018,13 @@
         <v>72</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>38</v>
@@ -6052,7 +6046,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>11</v>
@@ -6109,7 +6103,7 @@
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -6129,13 +6123,13 @@
         <v>72</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>38</v>
@@ -6157,13 +6151,13 @@
         <v>38</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -6214,7 +6208,7 @@
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -6234,14 +6228,14 @@
         <v>72</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
@@ -6254,7 +6248,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>38</v>
@@ -6263,16 +6257,16 @@
         <v>50</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O22" t="s" s="2">
+      <c r="P22" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>38</v>
@@ -6321,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -6341,10 +6335,10 @@
         <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -6364,22 +6358,22 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O23" t="s" s="2">
+      <c r="P23" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>38</v>
@@ -6428,7 +6422,7 @@
         <v>38</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -6448,10 +6442,10 @@
         <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -6471,16 +6465,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -6531,7 +6525,7 @@
         <v>38</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -6551,10 +6545,10 @@
         <v>72</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -6574,19 +6568,19 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
@@ -6636,7 +6630,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -6656,14 +6650,14 @@
         <v>72</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
@@ -6679,20 +6673,20 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>38</v>
@@ -6741,7 +6735,7 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -6761,14 +6755,14 @@
         <v>72</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -6784,22 +6778,22 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O27" t="s" s="2">
+      <c r="P27" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>38</v>
@@ -6848,7 +6842,7 @@
         <v>38</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -6868,10 +6862,10 @@
         <v>72</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -6891,19 +6885,19 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -6953,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -6973,10 +6967,10 @@
         <v>72</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -6993,25 +6987,25 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="P29" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>38</v>
@@ -7036,14 +7030,14 @@
         <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AA29" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AB29" t="s" s="2">
         <v>38</v>
       </c>
@@ -7060,7 +7054,7 @@
         <v>38</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -7080,10 +7074,10 @@
         <v>72</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -7100,25 +7094,25 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>38</v>
@@ -7143,14 +7137,14 @@
         <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z30" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AA30" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AB30" t="s" s="2">
         <v>38</v>
       </c>
@@ -7167,7 +7161,7 @@
         <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>44</v>
@@ -7187,10 +7181,10 @@
         <v>72</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -7210,22 +7204,22 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="O31" t="s" s="2">
+      <c r="P31" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>38</v>
@@ -7250,14 +7244,14 @@
         <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AB31" t="s" s="2">
         <v>38</v>
       </c>
@@ -7274,7 +7268,7 @@
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -7294,10 +7288,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -7317,16 +7311,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -7377,7 +7371,7 @@
         <v>38</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -7397,10 +7391,10 @@
         <v>72</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -7420,20 +7414,20 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>38</v>
@@ -7482,7 +7476,7 @@
         <v>38</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>39</v>
@@ -7502,14 +7496,14 @@
         <v>72</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -7525,16 +7519,16 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -7585,7 +7579,7 @@
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -7605,10 +7599,10 @@
         <v>72</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -7628,19 +7622,19 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -7690,7 +7684,7 @@
         <v>38</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
@@ -7710,14 +7704,14 @@
         <v>72</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -7733,22 +7727,22 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="O36" t="s" s="2">
+      <c r="P36" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>38</v>
@@ -7797,7 +7791,7 @@
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
@@ -7817,14 +7811,14 @@
         <v>72</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
@@ -7840,16 +7834,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -7900,7 +7894,7 @@
         <v>38</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -7920,10 +7914,10 @@
         <v>72</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -7943,19 +7937,19 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
@@ -8005,7 +7999,7 @@
         <v>38</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -8025,10 +8019,10 @@
         <v>72</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -8051,16 +8045,16 @@
         <v>38</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -8110,7 +8104,7 @@
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
@@ -8130,10 +8124,10 @@
         <v>72</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -8156,17 +8150,17 @@
         <v>38</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>38</v>
@@ -8215,7 +8209,7 @@
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
@@ -8235,10 +8229,10 @@
         <v>72</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -8258,22 +8252,22 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>38</v>
@@ -8322,7 +8316,7 @@
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>39</v>
@@ -8342,10 +8336,10 @@
         <v>72</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -8368,19 +8362,19 @@
         <v>38</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="O42" t="s" s="2">
+      <c r="P42" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>38</v>
@@ -8429,7 +8423,7 @@
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>39</v>
@@ -8449,10 +8443,10 @@
         <v>72</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -8475,19 +8469,19 @@
         <v>38</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="O43" t="s" s="2">
+      <c r="P43" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>38</v>
@@ -8536,7 +8530,7 @@
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
@@ -8556,10 +8550,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -8582,17 +8576,17 @@
         <v>38</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>38</v>
@@ -8641,7 +8635,7 @@
         <v>38</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -8653,7 +8647,7 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
@@ -8661,10 +8655,10 @@
         <v>72</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -8764,10 +8758,10 @@
         <v>72</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -8865,13 +8859,13 @@
         <v>72</v>
       </c>
       <c r="B47" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D47" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="E47" t="s" s="2">
         <v>38</v>
@@ -8893,13 +8887,13 @@
         <v>38</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -8970,14 +8964,14 @@
         <v>72</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -8990,25 +8984,25 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P48" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>38</v>
@@ -9057,7 +9051,7 @@
         <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -9077,10 +9071,10 @@
         <v>72</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -9103,16 +9097,16 @@
         <v>38</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
@@ -9138,14 +9132,14 @@
         <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z49" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AA49" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AA49" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AB49" t="s" s="2">
         <v>38</v>
       </c>
@@ -9162,7 +9156,7 @@
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -9182,10 +9176,10 @@
         <v>72</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -9208,19 +9202,19 @@
         <v>38</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="O50" t="s" s="2">
+      <c r="P50" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>38</v>
@@ -9269,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>39</v>
@@ -9289,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -9315,19 +9309,19 @@
         <v>38</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="O51" t="s" s="2">
+      <c r="P51" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>38</v>
@@ -9376,7 +9370,7 @@
         <v>38</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>39</v>
@@ -9396,10 +9390,10 @@
         <v>72</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -9422,19 +9416,19 @@
         <v>38</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="O52" t="s" s="2">
+      <c r="P52" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>38</v>
@@ -9483,7 +9477,7 @@
         <v>38</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>39</v>
@@ -9492,7 +9486,7 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>65</v>
@@ -9503,10 +9497,10 @@
         <v>72</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -9529,17 +9523,17 @@
         <v>38</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q53" t="s" s="2">
         <v>38</v>
@@ -9588,7 +9582,7 @@
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>39</v>
@@ -9597,7 +9591,7 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>65</v>
@@ -9608,10 +9602,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -9711,14 +9705,14 @@
         <v>72</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s" s="2">
@@ -9740,13 +9734,13 @@
         <v>50</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O55" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
@@ -9816,14 +9810,14 @@
         <v>72</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
@@ -9836,25 +9830,25 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M56" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O56" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P56" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>38</v>
@@ -9903,7 +9897,7 @@
         <v>38</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -9923,10 +9917,10 @@
         <v>72</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9949,17 +9943,17 @@
         <v>38</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>38</v>
@@ -9984,14 +9978,14 @@
         <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA57" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AA57" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AB57" t="s" s="2">
         <v>38</v>
       </c>
@@ -10008,7 +10002,7 @@
         <v>38</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
@@ -10028,10 +10022,10 @@
         <v>72</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -10054,17 +10048,17 @@
         <v>38</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>38</v>
@@ -10113,7 +10107,7 @@
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
@@ -10133,10 +10127,10 @@
         <v>72</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -10162,16 +10156,16 @@
         <v>58</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>38</v>
@@ -10220,7 +10214,7 @@
         <v>38</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>39</v>
@@ -10240,10 +10234,10 @@
         <v>72</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -10266,19 +10260,19 @@
         <v>38</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="O60" t="s" s="2">
+      <c r="P60" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>38</v>
@@ -10303,14 +10297,14 @@
         <v>38</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA60" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="AB60" t="s" s="2">
         <v>38</v>
       </c>
@@ -10327,7 +10321,7 @@
         <v>38</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>39</v>
@@ -10347,10 +10341,10 @@
         <v>72</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -10373,16 +10367,16 @@
         <v>38</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
@@ -10408,14 +10402,14 @@
         <v>38</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA61" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AB61" t="s" s="2">
         <v>38</v>
       </c>
@@ -10432,7 +10426,7 @@
         <v>38</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>39</v>
@@ -10452,10 +10446,10 @@
         <v>72</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -10478,16 +10472,16 @@
         <v>38</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
@@ -10537,7 +10531,7 @@
         <v>38</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>39</v>
@@ -10557,10 +10551,10 @@
         <v>72</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -10583,17 +10577,17 @@
         <v>38</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>38</v>
@@ -10642,7 +10636,7 @@
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>39</v>
@@ -10662,10 +10656,10 @@
         <v>72</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -10682,25 +10676,25 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="O64" t="s" s="2">
+      <c r="P64" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="Q64" t="s" s="2">
         <v>38</v>
@@ -10725,14 +10719,14 @@
         <v>38</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z64" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AA64" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AA64" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AB64" t="s" s="2">
         <v>38</v>
       </c>
@@ -10749,7 +10743,7 @@
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -10769,10 +10763,10 @@
         <v>72</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10795,16 +10789,16 @@
         <v>38</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M65" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
@@ -10854,7 +10848,7 @@
         <v>38</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>39</v>
@@ -10874,10 +10868,10 @@
         <v>72</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10894,7 +10888,7 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>38</v>
@@ -10903,23 +10897,23 @@
         <v>71</v>
       </c>
       <c r="M66" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="O66" t="s" s="2">
+      <c r="P66" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="P66" t="s" s="2">
+      <c r="Q66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R66" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Q66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="S66" t="s" s="2">
         <v>38</v>
       </c>
@@ -10963,7 +10957,7 @@
         <v>38</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>39</v>
@@ -10983,10 +10977,10 @@
         <v>72</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -11009,17 +11003,17 @@
         <v>38</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q67" t="s" s="2">
         <v>38</v>
@@ -11068,7 +11062,7 @@
         <v>38</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>39</v>
@@ -11088,10 +11082,10 @@
         <v>72</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -11114,19 +11108,19 @@
         <v>38</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="O68" t="s" s="2">
+      <c r="P68" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>38</v>
@@ -11175,7 +11169,7 @@
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>39</v>
@@ -11195,10 +11189,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -11221,19 +11215,19 @@
         <v>38</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="O69" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="P69" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>38</v>
@@ -11282,7 +11276,7 @@
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>39</v>
@@ -11302,10 +11296,10 @@
         <v>72</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -11328,13 +11322,13 @@
         <v>38</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -11361,14 +11355,14 @@
         <v>38</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z70" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AA70" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AB70" t="s" s="2">
         <v>38</v>
       </c>
@@ -11385,7 +11379,7 @@
         <v>38</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>39</v>
@@ -11405,14 +11399,14 @@
         <v>72</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
@@ -11431,17 +11425,17 @@
         <v>38</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q71" t="s" s="2">
         <v>38</v>
@@ -11490,7 +11484,7 @@
         <v>38</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>39</v>
@@ -11510,10 +11504,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -11536,13 +11530,13 @@
         <v>38</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -11593,7 +11587,7 @@
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>39</v>
@@ -11613,10 +11607,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -11642,10 +11636,10 @@
         <v>45</v>
       </c>
       <c r="M73" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -11696,7 +11690,7 @@
         <v>38</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>39</v>
@@ -11716,10 +11710,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11742,17 +11736,17 @@
         <v>38</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q74" t="s" s="2">
         <v>38</v>
@@ -11801,7 +11795,7 @@
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>39</v>
@@ -11818,7 +11812,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>29</v>
@@ -11850,10 +11844,10 @@
         <v>41</v>
       </c>
       <c r="M75" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -11921,7 +11915,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>43</v>
@@ -12024,7 +12018,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>49</v>
@@ -12127,7 +12121,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>57</v>
@@ -12173,7 +12167,7 @@
       </c>
       <c r="R78" s="2"/>
       <c r="S78" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>38</v>
@@ -12232,7 +12226,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>62</v>
@@ -12335,13 +12329,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -12367,10 +12361,10 @@
         <v>41</v>
       </c>
       <c r="M80" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N80" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -12421,7 +12415,7 @@
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>39</v>
@@ -12438,13 +12432,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -12464,19 +12458,19 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
@@ -12526,7 +12520,7 @@
         <v>38</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>39</v>
@@ -12543,13 +12537,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -12569,16 +12563,16 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -12629,7 +12623,7 @@
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>39</v>
@@ -12646,13 +12640,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12669,22 +12663,22 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
@@ -12734,7 +12728,7 @@
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>39</v>
@@ -12751,13 +12745,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12780,16 +12774,16 @@
         <v>38</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
@@ -12815,31 +12809,31 @@
         <v>38</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z84" t="s" s="2">
+      <c r="AA84" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA84" t="s" s="2">
+      <c r="AB84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG84" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>39</v>
@@ -12856,17 +12850,17 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -12885,16 +12879,16 @@
         <v>38</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
@@ -12944,7 +12938,7 @@
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>39</v>
@@ -12961,17 +12955,17 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
@@ -12990,16 +12984,16 @@
         <v>38</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
@@ -13049,7 +13043,7 @@
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>39</v>
@@ -13066,17 +13060,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" t="s" s="2">
@@ -13098,13 +13092,13 @@
         <v>50</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
@@ -13154,7 +13148,7 @@
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>39</v>
@@ -13171,17 +13165,17 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" t="s" s="2">
@@ -13194,7 +13188,7 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>38</v>
@@ -13203,16 +13197,16 @@
         <v>50</v>
       </c>
       <c r="M88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O88" t="s" s="2">
+      <c r="P88" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q88" t="s" s="2">
         <v>38</v>
@@ -13261,7 +13255,7 @@
         <v>38</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -13278,13 +13272,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -13304,20 +13298,20 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q89" t="s" s="2">
         <v>38</v>
@@ -13354,7 +13348,7 @@
         <v>38</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AD89" s="2"/>
       <c r="AE89" t="s" s="2">
@@ -13364,7 +13358,7 @@
         <v>54</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>39</v>
@@ -13381,16 +13375,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="D90" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="E90" t="s" s="2">
         <v>38</v>
@@ -13403,26 +13397,26 @@
         <v>44</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M90" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>38</v>
@@ -13471,7 +13465,7 @@
         <v>38</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>39</v>
@@ -13488,13 +13482,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13591,17 +13585,17 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" t="s" s="2">
@@ -13623,13 +13617,13 @@
         <v>50</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O92" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
@@ -13696,13 +13690,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13719,25 +13713,25 @@
         <v>38</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M93" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="O93" t="s" s="2">
+      <c r="P93" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="Q93" t="s" s="2">
         <v>38</v>
@@ -13762,31 +13756,31 @@
         <v>38</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z93" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AA93" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AA93" t="s" s="2">
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG93" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>39</v>
@@ -13803,13 +13797,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13829,22 +13823,22 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="O94" t="s" s="2">
+      <c r="P94" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="P94" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>38</v>
@@ -13854,46 +13848,46 @@
         <v>38</v>
       </c>
       <c r="T94" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="U94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Z94" t="s" s="2">
+      <c r="AA94" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AA94" t="s" s="2">
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG94" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>39</v>
@@ -13910,13 +13904,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13936,22 +13930,22 @@
         <v>38</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M95" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="O95" t="s" s="2">
+      <c r="P95" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -13964,43 +13958,43 @@
         <v>38</v>
       </c>
       <c r="U95" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG95" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -14017,13 +14011,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -14037,25 +14031,25 @@
         <v>44</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>45</v>
       </c>
       <c r="M96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
@@ -14069,43 +14063,43 @@
         <v>38</v>
       </c>
       <c r="U96" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG96" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>39</v>
@@ -14122,13 +14116,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -14148,16 +14142,16 @@
         <v>38</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M97" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -14208,7 +14202,7 @@
         <v>38</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>39</v>
@@ -14225,13 +14219,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -14251,19 +14245,19 @@
         <v>38</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
@@ -14313,7 +14307,7 @@
         <v>38</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>39</v>
@@ -14330,13 +14324,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -14356,29 +14350,29 @@
         <v>38</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L99" t="s" s="2">
         <v>71</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="O99" t="s" s="2">
+      <c r="P99" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="P99" t="s" s="2">
+      <c r="Q99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R99" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Q99" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="S99" t="s" s="2">
         <v>38</v>
       </c>
@@ -14422,7 +14416,7 @@
         <v>38</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
@@ -14439,13 +14433,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -14465,22 +14459,22 @@
         <v>38</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="O100" t="s" s="2">
+      <c r="P100" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="Q100" t="s" s="2">
         <v>38</v>
@@ -14529,7 +14523,7 @@
         <v>38</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>39</v>
@@ -14546,13 +14540,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14572,22 +14566,22 @@
         <v>38</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="O101" t="s" s="2">
+      <c r="P101" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>38</v>
@@ -14636,7 +14630,7 @@
         <v>38</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>39</v>
@@ -14653,13 +14647,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14679,22 +14673,22 @@
         <v>38</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="O102" t="s" s="2">
+      <c r="P102" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>38</v>
@@ -14743,7 +14737,7 @@
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>39</v>
@@ -14760,13 +14754,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14786,20 +14780,20 @@
         <v>38</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M103" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q103" t="s" s="2">
         <v>38</v>
@@ -14824,14 +14818,14 @@
         <v>38</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z103" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AA103" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AA103" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AB103" t="s" s="2">
         <v>38</v>
       </c>
@@ -14848,7 +14842,7 @@
         <v>38</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>39</v>
@@ -14865,13 +14859,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14891,20 +14885,20 @@
         <v>38</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>38</v>
@@ -14953,7 +14947,7 @@
         <v>38</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>39</v>
@@ -14970,13 +14964,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14999,17 +14993,17 @@
         <v>38</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>38</v>
@@ -15058,7 +15052,7 @@
         <v>38</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>39</v>
@@ -15075,13 +15069,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -15104,13 +15098,13 @@
         <v>38</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M106" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -15161,7 +15155,7 @@
         <v>38</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>39</v>
@@ -15178,13 +15172,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -15281,17 +15275,17 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
@@ -15313,13 +15307,13 @@
         <v>50</v>
       </c>
       <c r="M108" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O108" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
@@ -15386,17 +15380,17 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" t="s" s="2">
@@ -15409,25 +15403,25 @@
         <v>38</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L109" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M109" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N109" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O109" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P109" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q109" t="s" s="2">
         <v>38</v>
@@ -15476,7 +15470,7 @@
         <v>38</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>39</v>
@@ -15493,13 +15487,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15522,17 +15516,17 @@
         <v>38</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M110" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q110" t="s" s="2">
         <v>38</v>
@@ -15581,7 +15575,7 @@
         <v>38</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>39</v>
@@ -15598,13 +15592,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -15627,13 +15621,13 @@
         <v>38</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M111" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -15645,29 +15639,29 @@
         <v>38</v>
       </c>
       <c r="T111" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="U111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Z111" t="s" s="2">
+      <c r="AA111" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AA111" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AB111" t="s" s="2">
         <v>38</v>
       </c>
@@ -15684,7 +15678,7 @@
         <v>38</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>44</v>
@@ -15701,13 +15695,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15730,17 +15724,17 @@
         <v>38</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M112" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q112" t="s" s="2">
         <v>38</v>
@@ -15789,7 +15783,7 @@
         <v>38</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>39</v>
@@ -15806,13 +15800,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15835,13 +15829,13 @@
         <v>38</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M113" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -15892,7 +15886,7 @@
         <v>38</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
@@ -15909,13 +15903,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15938,19 +15932,19 @@
         <v>38</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M114" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="O114" t="s" s="2">
+      <c r="P114" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="Q114" t="s" s="2">
         <v>38</v>
@@ -15975,14 +15969,14 @@
         <v>38</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z114" t="s" s="2">
+      <c r="AA114" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA114" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AB114" t="s" s="2">
         <v>38</v>
       </c>
@@ -15999,7 +15993,7 @@
         <v>38</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
@@ -16016,7 +16010,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>29</v>
@@ -16048,10 +16042,10 @@
         <v>41</v>
       </c>
       <c r="M115" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -16119,7 +16113,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>43</v>
@@ -16222,7 +16216,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>49</v>
@@ -16325,7 +16319,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>57</v>
@@ -16371,7 +16365,7 @@
       </c>
       <c r="R118" s="2"/>
       <c r="S118" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>38</v>
@@ -16430,7 +16424,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>62</v>
@@ -16533,7 +16527,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>29</v>
@@ -16565,10 +16559,10 @@
         <v>41</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -16636,7 +16630,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>43</v>
@@ -16739,7 +16733,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>49</v>
@@ -16842,7 +16836,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>57</v>
@@ -16888,7 +16882,7 @@
       </c>
       <c r="R123" s="2"/>
       <c r="S123" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T123" t="s" s="2">
         <v>38</v>
@@ -16947,7 +16941,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>62</v>
@@ -17050,17 +17044,17 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" t="s" s="2">
@@ -17082,10 +17076,10 @@
         <v>41</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -17136,7 +17130,7 @@
         <v>38</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>39</v>
@@ -17153,13 +17147,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17179,19 +17173,19 @@
         <v>38</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N126" t="s" s="2">
+      <c r="O126" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -17241,7 +17235,7 @@
         <v>38</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>39</v>
@@ -17258,13 +17252,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17284,16 +17278,16 @@
         <v>38</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -17344,7 +17338,7 @@
         <v>38</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>39</v>
@@ -17361,13 +17355,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17384,22 +17378,22 @@
         <v>38</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>58</v>
       </c>
       <c r="M128" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N128" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
@@ -17449,7 +17443,7 @@
         <v>38</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>39</v>
@@ -17466,13 +17460,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -17495,16 +17489,16 @@
         <v>38</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
@@ -17530,31 +17524,31 @@
         <v>38</v>
       </c>
       <c r="Y129" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z129" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z129" t="s" s="2">
+      <c r="AA129" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA129" t="s" s="2">
+      <c r="AB129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG129" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>39</v>
@@ -17571,17 +17565,17 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" t="s" s="2">
@@ -17600,16 +17594,16 @@
         <v>38</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
@@ -17659,7 +17653,7 @@
         <v>38</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>39</v>
@@ -17676,17 +17670,17 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
@@ -17705,16 +17699,16 @@
         <v>38</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
@@ -17764,7 +17758,7 @@
         <v>38</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>39</v>
@@ -17781,13 +17775,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17865,7 +17859,7 @@
         <v>54</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>39</v>
@@ -17882,16 +17876,16 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="D133" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="E133" t="s" s="2">
         <v>38</v>
@@ -17913,13 +17907,13 @@
         <v>38</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -17970,7 +17964,7 @@
         <v>38</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>39</v>
@@ -17987,17 +17981,17 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" t="s" s="2">
@@ -18010,7 +18004,7 @@
         <v>38</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>38</v>
@@ -18019,16 +18013,16 @@
         <v>50</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O134" t="s" s="2">
+      <c r="P134" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>38</v>
@@ -18077,7 +18071,7 @@
         <v>38</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>39</v>
@@ -18094,13 +18088,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -18120,20 +18114,20 @@
         <v>38</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>38</v>
@@ -18182,7 +18176,7 @@
         <v>38</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>39</v>
@@ -18199,13 +18193,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18222,31 +18216,31 @@
         <v>38</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L136" t="s" s="2">
         <v>71</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O136" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="P136" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="O136" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="Q136" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>38</v>
@@ -18291,7 +18285,7 @@
         <v>38</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>39</v>
@@ -18308,13 +18302,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18334,22 +18328,22 @@
         <v>38</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M137" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O137" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="N137" t="s" s="2">
+      <c r="P137" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="P137" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="Q137" t="s" s="2">
         <v>38</v>
@@ -18398,7 +18392,7 @@
         <v>38</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>39</v>
@@ -18415,13 +18409,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18441,22 +18435,22 @@
         <v>38</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O138" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="P138" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -18505,7 +18499,7 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -18522,13 +18516,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -18548,22 +18542,22 @@
         <v>38</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N139" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P139" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -18588,14 +18582,14 @@
         <v>38</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z139" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AA139" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AA139" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AB139" t="s" s="2">
         <v>38</v>
       </c>
@@ -18612,7 +18606,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -18629,13 +18623,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18655,22 +18649,22 @@
         <v>38</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O140" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="P140" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -18719,7 +18713,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -18736,13 +18730,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -18759,25 +18753,25 @@
         <v>38</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="P141" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -18826,7 +18820,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -18843,13 +18837,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18869,22 +18863,22 @@
         <v>38</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N142" t="s" s="2">
+      <c r="P142" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="Q142" t="s" s="2">
         <v>38</v>
@@ -18933,7 +18927,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -18950,13 +18944,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -18979,17 +18973,17 @@
         <v>38</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Q143" t="s" s="2">
         <v>38</v>
@@ -19014,13 +19008,13 @@
         <v>38</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
@@ -19038,7 +19032,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -19055,13 +19049,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19084,19 +19078,19 @@
         <v>38</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N144" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="P144" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="P144" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="Q144" t="s" s="2">
         <v>38</v>
@@ -19145,7 +19139,7 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>39</v>
@@ -19162,13 +19156,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19191,19 +19185,19 @@
         <v>38</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M145" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O145" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="P145" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -19252,7 +19246,7 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>39</v>
@@ -19269,13 +19263,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19298,19 +19292,19 @@
         <v>38</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M146" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="O146" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N146" t="s" s="2">
+      <c r="P146" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -19359,7 +19353,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>39</v>
@@ -19371,18 +19365,18 @@
         <v>38</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19479,17 +19473,17 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" t="s" s="2">
@@ -19511,13 +19505,13 @@
         <v>50</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N148" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O148" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P148" s="2"/>
       <c r="Q148" t="s" s="2">
@@ -19584,17 +19578,17 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" t="s" s="2">
@@ -19607,25 +19601,25 @@
         <v>38</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N149" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O149" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P149" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -19674,7 +19668,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -19691,13 +19685,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -19720,17 +19714,17 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q150" t="s" s="2">
         <v>38</v>
@@ -19755,13 +19749,13 @@
         <v>38</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AA150" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AB150" t="s" s="2">
         <v>38</v>
@@ -19779,7 +19773,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -19796,13 +19790,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -19825,17 +19819,17 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -19884,7 +19878,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -19901,13 +19895,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -19930,19 +19924,19 @@
         <v>38</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N152" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O152" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="N152" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="P152" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q152" t="s" s="2">
         <v>38</v>
@@ -19991,7 +19985,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -20008,13 +20002,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20037,17 +20031,17 @@
         <v>38</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>38</v>
@@ -20096,7 +20090,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -20113,13 +20107,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20142,17 +20136,17 @@
         <v>38</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>38</v>
@@ -20177,14 +20171,14 @@
         <v>38</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z154" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AA154" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AA154" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AB154" t="s" s="2">
         <v>38</v>
       </c>
@@ -20201,7 +20195,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -20218,13 +20212,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -20247,17 +20241,17 @@
         <v>38</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
@@ -20306,7 +20300,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -20315,7 +20309,7 @@
         <v>44</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AK155" t="s" s="2">
         <v>65</v>
@@ -20323,13 +20317,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20352,13 +20346,13 @@
         <v>38</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -20409,7 +20403,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
@@ -20426,13 +20420,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20455,19 +20449,19 @@
         <v>38</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O157" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="P157" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="P157" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>38</v>
@@ -20516,7 +20510,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -20533,13 +20527,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20636,17 +20630,17 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" t="s" s="2">
@@ -20668,13 +20662,13 @@
         <v>50</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N159" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O159" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
@@ -20741,17 +20735,17 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" t="s" s="2">
@@ -20764,25 +20758,25 @@
         <v>38</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N160" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O160" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P160" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P160" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q160" t="s" s="2">
         <v>38</v>
@@ -20831,7 +20825,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -20848,13 +20842,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -20877,19 +20871,19 @@
         <v>38</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="O161" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="P161" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>38</v>
@@ -20914,14 +20908,14 @@
         <v>38</v>
       </c>
       <c r="Y161" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Z161" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="Z161" t="s" s="2">
+      <c r="AA161" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AA161" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AB161" t="s" s="2">
         <v>38</v>
       </c>
@@ -20938,7 +20932,7 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>44</v>
@@ -20955,13 +20949,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20987,16 +20981,16 @@
         <v>71</v>
       </c>
       <c r="M162" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="O162" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="P162" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="Q162" t="s" s="2">
         <v>38</v>
@@ -21045,7 +21039,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -21062,17 +21056,17 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
@@ -21091,16 +21085,16 @@
         <v>38</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="P163" s="2"/>
       <c r="Q163" t="s" s="2">
@@ -21150,7 +21144,7 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
@@ -21167,13 +21161,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21193,22 +21187,22 @@
         <v>38</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M164" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N164" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="O164" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="N164" t="s" s="2">
+      <c r="P164" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="Q164" t="s" s="2">
         <v>38</v>
@@ -21257,7 +21251,7 @@
         <v>38</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>39</v>
@@ -21274,13 +21268,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21297,25 +21291,25 @@
         <v>38</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="O165" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>38</v>
@@ -21364,7 +21358,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21381,13 +21375,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21484,17 +21478,17 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -21516,13 +21510,13 @@
         <v>50</v>
       </c>
       <c r="M167" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N167" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="O167" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -21589,17 +21583,17 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
@@ -21612,25 +21606,25 @@
         <v>38</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L168" t="s" s="2">
         <v>50</v>
       </c>
       <c r="M168" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N168" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="O168" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P168" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>38</v>
@@ -21679,7 +21673,7 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
@@ -21696,13 +21690,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21722,19 +21716,19 @@
         <v>38</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -21784,7 +21778,7 @@
         <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>44</v>
@@ -21801,13 +21795,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -21827,16 +21821,16 @@
         <v>38</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -21863,13 +21857,13 @@
         <v>38</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AA170" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AB170" t="s" s="2">
         <v>38</v>
@@ -21887,7 +21881,7 @@
         <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>44</v>
@@ -21904,7 +21898,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>29</v>
@@ -21936,10 +21930,10 @@
         <v>41</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22007,7 +22001,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>43</v>
@@ -22110,7 +22104,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>49</v>
@@ -22213,7 +22207,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>57</v>
@@ -22259,7 +22253,7 @@
       </c>
       <c r="R174" s="2"/>
       <c r="S174" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>38</v>
@@ -22318,7 +22312,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>62</v>
@@ -22347,7 +22341,7 @@
         <v>38</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M175" t="s" s="2">
         <v>63</v>
@@ -22380,11 +22374,11 @@
         <v>38</v>
       </c>
       <c r="Y175" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z175" s="2"/>
       <c r="AA175" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AB175" t="s" s="2">
         <v>38</v>
@@ -22419,7 +22413,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>29</v>
@@ -22451,10 +22445,10 @@
         <v>41</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -22522,7 +22516,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>43</v>
@@ -22625,7 +22619,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>49</v>
@@ -22728,7 +22722,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>57</v>
@@ -22774,7 +22768,7 @@
       </c>
       <c r="R179" s="2"/>
       <c r="S179" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="T179" t="s" s="2">
         <v>38</v>
@@ -22833,7 +22827,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>62</v>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7831" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7833" uniqueCount="853">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:56:27+02:00</t>
+    <t>2023-07-17T16:21:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1817,6 +1817,13 @@
     <t>String to indicate who expresssed this latest goal</t>
   </si>
   <si>
+    <t>Goal.extension:reason-reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/reason-reference}
+</t>
+  </si>
+  <si>
     <t>Goal.modifierExtension</t>
   </si>
   <si>
@@ -1992,16 +1999,6 @@
   </si>
   <si>
     <t>Goal.target.extension</t>
-  </si>
-  <si>
-    <t>Goal.target.extension:reasonReference</t>
-  </si>
-  <si>
-    <t>reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/reason-reference}
-</t>
   </si>
   <si>
     <t>Goal.target.modifierExtension</t>
@@ -2662,6 +2659,10 @@
   </si>
   <si>
     <t>ExpressedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson)
+</t>
   </si>
   <si>
     <t>country-of-birth</t>
@@ -4259,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="189">
@@ -4267,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="190">
@@ -4283,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="192">
@@ -4291,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="193">
@@ -4335,7 +4336,7 @@
         <v>20</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="199">
@@ -4371,7 +4372,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="204">
@@ -4379,7 +4380,7 @@
         <v>30</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="205">
@@ -4419,7 +4420,7 @@
         <v>4</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="210">
@@ -4435,7 +4436,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4604,7 @@
         <v>10</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="234">
@@ -4647,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="240">
@@ -4897,7 +4898,7 @@
     <col min="1" max="1" width="24.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="15.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="38.4609375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.203125" customWidth="true" bestFit="true"/>
@@ -19394,43 +19395,41 @@
         <v>572</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="D139" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="E139" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>50</v>
+        <v>573</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>139</v>
+        <v>546</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
         <v>38</v>
       </c>
@@ -19478,7 +19477,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -19487,7 +19486,7 @@
         <v>40</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>56</v>
@@ -19498,14 +19497,14 @@
         <v>554</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" t="s" s="2">
@@ -19518,25 +19517,25 @@
         <v>38</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>38</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>574</v>
+        <v>139</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>575</v>
+        <v>140</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -19585,7 +19584,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>573</v>
+        <v>143</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -19597,7 +19596,7 @@
         <v>38</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141">
@@ -19605,10 +19604,10 @@
         <v>554</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19616,34 +19615,34 @@
       </c>
       <c r="F141" s="2"/>
       <c r="G141" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P141" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="Q141" t="s" s="2">
         <v>38</v>
@@ -19668,13 +19667,13 @@
         <v>38</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>582</v>
+        <v>38</v>
       </c>
       <c r="AA141" t="s" s="2">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="AB141" t="s" s="2">
         <v>38</v>
@@ -19692,13 +19691,13 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>38</v>
@@ -19712,10 +19711,10 @@
         <v>554</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19723,7 +19722,7 @@
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>44</v>
@@ -19732,22 +19731,26 @@
         <v>38</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P142" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="Q142" t="s" s="2">
         <v>38</v>
       </c>
@@ -19771,13 +19774,13 @@
         <v>38</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AA142" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AB142" t="s" s="2">
         <v>38</v>
@@ -19795,10 +19798,10 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>44</v>
@@ -19815,10 +19818,10 @@
         <v>554</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19829,7 +19832,7 @@
         <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I143" t="s" s="2">
         <v>38</v>
@@ -19844,15 +19847,13 @@
         <v>189</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>592</v>
-      </c>
+      <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
         <v>38</v>
       </c>
@@ -19876,13 +19877,13 @@
         <v>38</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AA143" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AB143" t="s" s="2">
         <v>38</v>
@@ -19900,13 +19901,13 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>38</v>
@@ -19920,10 +19921,10 @@
         <v>554</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -19934,7 +19935,7 @@
         <v>39</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>38</v>
@@ -19949,16 +19950,14 @@
         <v>189</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q144" t="s" s="2">
         <v>38</v>
@@ -19983,13 +19982,13 @@
         <v>38</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="AB144" t="s" s="2">
         <v>38</v>
@@ -20007,13 +20006,13 @@
         <v>38</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>38</v>
@@ -20027,10 +20026,10 @@
         <v>554</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -20038,7 +20037,7 @@
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>44</v>
@@ -20056,16 +20055,16 @@
         <v>189</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="P145" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q145" t="s" s="2">
         <v>38</v>
@@ -20090,13 +20089,13 @@
         <v>38</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="Z145" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AA145" t="s" s="2">
-        <v>333</v>
+        <v>603</v>
       </c>
       <c r="AB145" t="s" s="2">
         <v>38</v>
@@ -20114,10 +20113,10 @@
         <v>38</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>44</v>
@@ -20134,10 +20133,10 @@
         <v>554</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -20160,17 +20159,19 @@
         <v>83</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>609</v>
+        <v>189</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O146" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P146" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="Q146" t="s" s="2">
         <v>38</v>
@@ -20195,13 +20196,13 @@
         <v>38</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>38</v>
+        <v>609</v>
       </c>
       <c r="AA146" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AB146" t="s" s="2">
         <v>38</v>
@@ -20219,7 +20220,7 @@
         <v>38</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>44</v>
@@ -20239,10 +20240,10 @@
         <v>554</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -20250,7 +20251,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>44</v>
@@ -20265,17 +20266,17 @@
         <v>83</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -20300,13 +20301,13 @@
         <v>38</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>618</v>
+        <v>38</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>619</v>
+        <v>38</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -20324,10 +20325,10 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>44</v>
@@ -20344,10 +20345,10 @@
         <v>554</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20358,7 +20359,7 @@
         <v>39</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I148" t="s" s="2">
         <v>38</v>
@@ -20367,22 +20368,20 @@
         <v>38</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>259</v>
+        <v>616</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>38</v>
@@ -20407,13 +20406,13 @@
         <v>38</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>38</v>
+        <v>621</v>
       </c>
       <c r="AB148" t="s" s="2">
         <v>38</v>
@@ -20431,19 +20430,19 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>625</v>
+        <v>38</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>626</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149">
@@ -20451,10 +20450,10 @@
         <v>554</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20465,7 +20464,7 @@
         <v>39</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>38</v>
@@ -20477,16 +20476,20 @@
         <v>38</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>46</v>
+        <v>623</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="P149" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="Q149" t="s" s="2">
         <v>38</v>
       </c>
@@ -20534,19 +20537,19 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>48</v>
+        <v>622</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>38</v>
+        <v>627</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>38</v>
+        <v>628</v>
       </c>
     </row>
     <row r="150">
@@ -20554,10 +20557,10 @@
         <v>554</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20568,7 +20571,7 @@
         <v>39</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>38</v>
@@ -20580,13 +20583,13 @@
         <v>38</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -20625,29 +20628,31 @@
         <v>38</v>
       </c>
       <c r="AC150" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AD150" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AE150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -20655,16 +20660,14 @@
         <v>554</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="D151" t="s" s="2">
         <v>630</v>
       </c>
+      <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" t="s" s="2">
@@ -20683,15 +20686,17 @@
         <v>38</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>631</v>
+        <v>50</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O151" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="O151" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
         <v>38</v>
@@ -20749,7 +20754,7 @@
         <v>40</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>56</v>
@@ -20760,10 +20765,10 @@
         <v>554</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20867,10 +20872,10 @@
         <v>554</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20896,10 +20901,10 @@
         <v>189</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -20929,11 +20934,11 @@
         <v>194</v>
       </c>
       <c r="Z153" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AA153" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="AA153" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="AB153" t="s" s="2">
         <v>38</v>
       </c>
@@ -20950,7 +20955,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -20959,7 +20964,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>65</v>
@@ -20970,10 +20975,10 @@
         <v>554</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20996,16 +21001,16 @@
         <v>83</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P154" s="2"/>
       <c r="Q154" t="s" s="2">
@@ -21034,7 +21039,7 @@
         <v>194</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>38</v>
@@ -21055,7 +21060,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -21064,7 +21069,7 @@
         <v>44</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AK154" t="s" s="2">
         <v>65</v>
@@ -21075,10 +21080,10 @@
         <v>554</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -21101,17 +21106,17 @@
         <v>83</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
@@ -21160,7 +21165,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -21180,10 +21185,10 @@
         <v>554</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21209,13 +21214,13 @@
         <v>506</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="P156" s="2"/>
       <c r="Q156" t="s" s="2">
@@ -21265,7 +21270,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>39</v>
@@ -21285,10 +21290,10 @@
         <v>554</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21317,10 +21322,10 @@
         <v>351</v>
       </c>
       <c r="N157" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O157" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="P157" s="2"/>
       <c r="Q157" t="s" s="2">
@@ -21370,7 +21375,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -21390,10 +21395,10 @@
         <v>554</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21416,16 +21421,16 @@
         <v>83</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="N158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="P158" s="2"/>
       <c r="Q158" t="s" s="2">
@@ -21475,7 +21480,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -21495,10 +21500,10 @@
         <v>554</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21521,17 +21526,17 @@
         <v>38</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q159" t="s" s="2">
         <v>38</v>
@@ -21580,7 +21585,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -21600,10 +21605,10 @@
         <v>554</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21629,16 +21634,16 @@
         <v>288</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="N160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="O160" t="s" s="2">
+      <c r="P160" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="P160" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="Q160" t="s" s="2">
         <v>38</v>
@@ -21687,7 +21692,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -21707,10 +21712,10 @@
         <v>554</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21736,16 +21741,16 @@
         <v>189</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="N161" t="s" s="2">
+      <c r="O161" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="O161" t="s" s="2">
+      <c r="P161" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="P161" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="Q161" t="s" s="2">
         <v>38</v>
@@ -21773,7 +21778,7 @@
         <v>194</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>333</v>
@@ -21794,7 +21799,7 @@
         <v>38</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
@@ -21814,10 +21819,10 @@
         <v>554</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -21840,19 +21845,19 @@
         <v>38</v>
       </c>
       <c r="L162" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="N162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="O162" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="P162" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q162" t="s" s="2">
         <v>38</v>
@@ -21901,7 +21906,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -21918,17 +21923,17 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
@@ -21950,10 +21955,10 @@
         <v>41</v>
       </c>
       <c r="M163" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -22004,7 +22009,7 @@
         <v>38</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>39</v>
@@ -22021,13 +22026,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -22126,13 +22131,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22229,13 +22234,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -22334,13 +22339,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22439,13 +22444,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22544,13 +22549,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22649,13 +22654,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22750,16 +22755,16 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="D171" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="D171" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="E171" t="s" s="2">
         <v>38</v>
@@ -22781,13 +22786,13 @@
         <v>38</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -22855,13 +22860,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22962,13 +22967,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22994,14 +22999,14 @@
         <v>145</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>38</v>
@@ -23050,7 +23055,7 @@
         <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
@@ -23067,13 +23072,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -23099,16 +23104,16 @@
         <v>71</v>
       </c>
       <c r="M174" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="N174" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="N174" t="s" s="2">
+      <c r="O174" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="O174" t="s" s="2">
+      <c r="P174" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="P174" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="Q174" t="s" s="2">
         <v>38</v>
@@ -23159,7 +23164,7 @@
         <v>38</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>39</v>
@@ -23176,13 +23181,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23208,16 +23213,16 @@
         <v>482</v>
       </c>
       <c r="M175" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="N175" t="s" s="2">
+      <c r="O175" t="s" s="2">
         <v>714</v>
       </c>
-      <c r="O175" t="s" s="2">
+      <c r="P175" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="Q175" t="s" s="2">
         <v>38</v>
@@ -23266,7 +23271,7 @@
         <v>38</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>39</v>
@@ -23283,13 +23288,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -23315,16 +23320,16 @@
         <v>488</v>
       </c>
       <c r="M176" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="N176" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="N176" t="s" s="2">
+      <c r="O176" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="O176" t="s" s="2">
+      <c r="P176" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="P176" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="Q176" t="s" s="2">
         <v>38</v>
@@ -23373,7 +23378,7 @@
         <v>38</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AH176" t="s" s="2">
         <v>39</v>
@@ -23390,13 +23395,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23425,13 +23430,13 @@
         <v>500</v>
       </c>
       <c r="N177" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="O177" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="O177" t="s" s="2">
+      <c r="P177" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="Q177" t="s" s="2">
         <v>38</v>
@@ -23480,7 +23485,7 @@
         <v>38</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>39</v>
@@ -23497,13 +23502,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23529,16 +23534,16 @@
         <v>506</v>
       </c>
       <c r="M178" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="N178" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="N178" t="s" s="2">
+      <c r="O178" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="O178" t="s" s="2">
+      <c r="P178" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="Q178" t="s" s="2">
         <v>38</v>
@@ -23587,7 +23592,7 @@
         <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>39</v>
@@ -23604,13 +23609,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23633,19 +23638,19 @@
         <v>83</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="N179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="O179" t="s" s="2">
+      <c r="P179" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="P179" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="Q179" t="s" s="2">
         <v>38</v>
@@ -23694,7 +23699,7 @@
         <v>38</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>39</v>
@@ -23711,13 +23716,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23743,16 +23748,16 @@
         <v>494</v>
       </c>
       <c r="M180" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N180" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="N180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="O180" t="s" s="2">
+      <c r="P180" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="P180" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="Q180" t="s" s="2">
         <v>38</v>
@@ -23801,7 +23806,7 @@
         <v>38</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>39</v>
@@ -23818,13 +23823,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -23850,14 +23855,14 @@
         <v>189</v>
       </c>
       <c r="M181" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="N181" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q181" t="s" s="2">
         <v>38</v>
@@ -23885,11 +23890,11 @@
         <v>444</v>
       </c>
       <c r="Z181" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="AA181" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="AA181" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="AB181" t="s" s="2">
         <v>38</v>
       </c>
@@ -23906,7 +23911,7 @@
         <v>38</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>39</v>
@@ -23923,13 +23928,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23952,19 +23957,19 @@
         <v>38</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="N182" t="s" s="2">
+      <c r="O182" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="O182" t="s" s="2">
+      <c r="P182" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="P182" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="Q182" t="s" s="2">
         <v>38</v>
@@ -24013,7 +24018,7 @@
         <v>38</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>39</v>
@@ -24030,13 +24035,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -24062,16 +24067,16 @@
         <v>511</v>
       </c>
       <c r="M183" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="N183" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="N183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="O183" t="s" s="2">
+      <c r="P183" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="P183" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="Q183" t="s" s="2">
         <v>38</v>
@@ -24120,7 +24125,7 @@
         <v>38</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>39</v>
@@ -24137,13 +24142,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -24169,16 +24174,16 @@
         <v>259</v>
       </c>
       <c r="M184" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>760</v>
       </c>
-      <c r="N184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="O184" t="s" s="2">
+      <c r="P184" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="P184" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="Q184" t="s" s="2">
         <v>38</v>
@@ -24227,7 +24232,7 @@
         <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>39</v>
@@ -24239,18 +24244,18 @@
         <v>38</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -24347,13 +24352,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24452,13 +24457,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24559,13 +24564,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24591,14 +24596,14 @@
         <v>189</v>
       </c>
       <c r="M188" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N188" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q188" t="s" s="2">
         <v>38</v>
@@ -24626,11 +24631,11 @@
         <v>444</v>
       </c>
       <c r="Z188" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AA188" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="AA188" t="s" s="2">
-        <v>773</v>
-      </c>
       <c r="AB188" t="s" s="2">
         <v>38</v>
       </c>
@@ -24647,7 +24652,7 @@
         <v>38</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>39</v>
@@ -24664,13 +24669,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24696,14 +24701,14 @@
         <v>482</v>
       </c>
       <c r="M189" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q189" t="s" s="2">
         <v>38</v>
@@ -24752,7 +24757,7 @@
         <v>38</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>39</v>
@@ -24769,13 +24774,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24801,16 +24806,16 @@
         <v>488</v>
       </c>
       <c r="M190" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N190" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="N190" t="s" s="2">
+      <c r="O190" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="O190" t="s" s="2">
-        <v>781</v>
-      </c>
       <c r="P190" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q190" t="s" s="2">
         <v>38</v>
@@ -24859,7 +24864,7 @@
         <v>38</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>39</v>
@@ -24876,13 +24881,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24908,14 +24913,14 @@
         <v>494</v>
       </c>
       <c r="M191" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q191" t="s" s="2">
         <v>38</v>
@@ -24964,7 +24969,7 @@
         <v>38</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>39</v>
@@ -24981,13 +24986,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -25016,7 +25021,7 @@
         <v>500</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -25069,7 +25074,7 @@
         <v>38</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>39</v>
@@ -25086,13 +25091,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -25118,14 +25123,14 @@
         <v>470</v>
       </c>
       <c r="M193" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="Q193" t="s" s="2">
         <v>38</v>
@@ -25174,7 +25179,7 @@
         <v>38</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>39</v>
@@ -25183,7 +25188,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>65</v>
@@ -25191,13 +25196,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25223,10 +25228,10 @@
         <v>216</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -25277,7 +25282,7 @@
         <v>38</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>39</v>
@@ -25294,13 +25299,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25326,16 +25331,16 @@
         <v>259</v>
       </c>
       <c r="M195" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="N195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="O195" t="s" s="2">
+      <c r="P195" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="P195" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="Q195" t="s" s="2">
         <v>38</v>
@@ -25384,7 +25389,7 @@
         <v>38</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>39</v>
@@ -25401,13 +25406,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25504,13 +25509,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25609,13 +25614,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25716,13 +25721,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25748,16 +25753,16 @@
         <v>189</v>
       </c>
       <c r="M199" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="N199" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="N199" t="s" s="2">
+      <c r="O199" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="O199" t="s" s="2">
+      <c r="P199" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="P199" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="Q199" t="s" s="2">
         <v>38</v>
@@ -25806,7 +25811,7 @@
         <v>38</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>44</v>
@@ -25823,13 +25828,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25855,16 +25860,16 @@
         <v>71</v>
       </c>
       <c r="M200" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N200" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="N200" t="s" s="2">
+      <c r="O200" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="O200" t="s" s="2">
+      <c r="P200" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="P200" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="Q200" t="s" s="2">
         <v>38</v>
@@ -25913,7 +25918,7 @@
         <v>38</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>39</v>
@@ -25930,17 +25935,17 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" t="s" s="2">
@@ -25959,16 +25964,16 @@
         <v>38</v>
       </c>
       <c r="L201" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="M201" t="s" s="2">
         <v>816</v>
       </c>
-      <c r="M201" t="s" s="2">
+      <c r="N201" t="s" s="2">
         <v>817</v>
       </c>
-      <c r="N201" t="s" s="2">
+      <c r="O201" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="O201" t="s" s="2">
-        <v>819</v>
       </c>
       <c r="P201" s="2"/>
       <c r="Q201" t="s" s="2">
@@ -26018,7 +26023,7 @@
         <v>38</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>39</v>
@@ -26035,13 +26040,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26067,16 +26072,16 @@
         <v>470</v>
       </c>
       <c r="M202" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N202" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="N202" t="s" s="2">
+      <c r="O202" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="O202" t="s" s="2">
+      <c r="P202" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="P202" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="Q202" t="s" s="2">
         <v>38</v>
@@ -26125,7 +26130,7 @@
         <v>38</v>
       </c>
       <c r="AG202" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AH202" t="s" s="2">
         <v>39</v>
@@ -26142,13 +26147,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26174,16 +26179,16 @@
         <v>259</v>
       </c>
       <c r="M203" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>826</v>
       </c>
-      <c r="N203" t="s" s="2">
+      <c r="O203" t="s" s="2">
         <v>827</v>
       </c>
-      <c r="O203" t="s" s="2">
+      <c r="P203" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="P203" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="Q203" t="s" s="2">
         <v>38</v>
@@ -26232,7 +26237,7 @@
         <v>38</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>39</v>
@@ -26249,13 +26254,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26352,13 +26357,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26457,13 +26462,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26564,13 +26569,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26593,16 +26598,16 @@
         <v>83</v>
       </c>
       <c r="L207" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="M207" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="N207" t="s" s="2">
+      <c r="O207" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="O207" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="P207" s="2"/>
       <c r="Q207" t="s" s="2">
@@ -26652,7 +26657,7 @@
         <v>38</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>44</v>
@@ -26669,13 +26674,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26701,10 +26706,10 @@
         <v>100</v>
       </c>
       <c r="M208" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="N208" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
@@ -26734,11 +26739,11 @@
         <v>179</v>
       </c>
       <c r="Z208" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="AA208" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="AA208" t="s" s="2">
-        <v>841</v>
-      </c>
       <c r="AB208" t="s" s="2">
         <v>38</v>
       </c>
@@ -26755,7 +26760,7 @@
         <v>38</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>44</v>
@@ -27127,7 +27132,7 @@
       </c>
       <c r="R212" s="2"/>
       <c r="S212" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="T212" t="s" s="2">
         <v>38</v>
@@ -27215,7 +27220,7 @@
         <v>38</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>45</v>
+        <v>843</v>
       </c>
       <c r="M213" t="s" s="2">
         <v>63</v>
@@ -27321,10 +27326,10 @@
         <v>41</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>

--- a/temp/pages/all-profiles.xlsx
+++ b/temp/pages/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:22:35+02:00</t>
+    <t>2023-07-18T09:29:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
